--- a/summary/readme.xlsx
+++ b/summary/readme.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -98,11 +103,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -110,7 +115,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -118,9 +123,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -166,9 +177,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="标题 1" xfId="1" builtinId="16"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -226,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,7 +272,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,15 +484,15 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="40.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="40.1640625" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -649,7 +660,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>265</v>
       </c>
       <c r="B5">
@@ -687,6 +698,9 @@
       </c>
     </row>
     <row r="6" spans="1:13">
+      <c r="A6">
+        <v>159</v>
+      </c>
       <c r="F6">
         <v>239</v>
       </c>
@@ -859,17 +873,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="20.25" thickBot="1">
+    <row r="21" spans="1:1" ht="19" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" thickTop="1">
+    <row r="22" spans="1:1" ht="15" thickTop="1">
       <c r="A22" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/summary/readme.xlsx
+++ b/summary/readme.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="23780" windowHeight="11340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>class 1</t>
   </si>
@@ -97,6 +97,14 @@
   </si>
   <si>
     <t>Goog新题</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -484,7 +492,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -873,12 +881,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="19" thickBot="1">
+    <row r="19" spans="1:7">
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="19" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" thickTop="1">
+    <row r="22" spans="1:7" ht="15" thickTop="1">
       <c r="A22" t="s">
         <v>23</v>
       </c>

--- a/summary/readme.xlsx
+++ b/summary/readme.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="23780" windowHeight="11340"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="26820" windowHeight="13580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,8 +142,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +161,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -174,17 +187,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="好" xfId="3" builtinId="26"/>
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="标题 1" xfId="1" builtinId="16"/>
@@ -492,7 +508,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -544,7 +560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="15">
       <c r="A2">
         <v>27</v>
       </c>
@@ -578,14 +594,14 @@
       <c r="K2" s="1">
         <v>3</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2">
         <v>76</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="15">
       <c r="A3">
         <v>26</v>
       </c>
@@ -619,7 +635,7 @@
       <c r="K3">
         <v>340</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>763</v>
       </c>
       <c r="M3">

--- a/summary/readme.xlsx
+++ b/summary/readme.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="26820" windowHeight="13580"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="26820" windowHeight="13575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>class 1</t>
   </si>
@@ -105,17 +105,59 @@
   <si>
     <t>Stack</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>line 14</t>
+  </si>
+  <si>
+    <t>line 15</t>
+  </si>
+  <si>
+    <t>line 16</t>
+  </si>
+  <si>
+    <t>line 17</t>
+  </si>
+  <si>
+    <t>tree 1</t>
+  </si>
+  <si>
+    <t>tree 2</t>
+  </si>
+  <si>
+    <t>tree 3</t>
+  </si>
+  <si>
+    <t>tree 4</t>
+  </si>
+  <si>
+    <t>tree 5</t>
+  </si>
+  <si>
+    <t>tree 6</t>
+  </si>
+  <si>
+    <t>tree 7</t>
+  </si>
+  <si>
+    <t>tree 8</t>
+  </si>
+  <si>
+    <t>tree 9</t>
+  </si>
+  <si>
+    <t>tree 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -123,7 +165,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -131,27 +173,35 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +216,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -187,23 +242,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="好" xfId="3" builtinId="26"/>
-    <cellStyle name="差" xfId="2" builtinId="27"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="标题 1" xfId="1" builtinId="16"/>
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -261,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,7 +354,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -505,21 +563,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="40.1640625" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -559,8 +617,50 @@
       <c r="M1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15">
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75">
       <c r="A2">
         <v>27</v>
       </c>
@@ -600,8 +700,20 @@
       <c r="M2" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15">
+      <c r="N2">
+        <v>209</v>
+      </c>
+      <c r="O2">
+        <v>862</v>
+      </c>
+      <c r="P2">
+        <v>125</v>
+      </c>
+      <c r="Q2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75">
       <c r="A3">
         <v>26</v>
       </c>
@@ -641,8 +753,20 @@
       <c r="M3">
         <v>134</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>76</v>
+      </c>
+      <c r="O3">
+        <v>930</v>
+      </c>
+      <c r="P3">
+        <v>172</v>
+      </c>
+      <c r="Q3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>80</v>
       </c>
@@ -682,8 +806,20 @@
       <c r="M4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>340</v>
+      </c>
+      <c r="O4">
+        <v>560</v>
+      </c>
+      <c r="P4">
+        <v>50</v>
+      </c>
+      <c r="Q4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>265</v>
       </c>
@@ -717,11 +853,23 @@
       <c r="L5">
         <v>32</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="4">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>325</v>
+      </c>
+      <c r="P5">
+        <v>544</v>
+      </c>
+      <c r="Q5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>159</v>
       </c>
@@ -734,8 +882,17 @@
       <c r="J6">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6">
+        <v>303</v>
+      </c>
+      <c r="P6">
+        <v>779</v>
+      </c>
+      <c r="Q6">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="B7">
         <v>288</v>
       </c>
@@ -763,8 +920,17 @@
       <c r="L7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7">
+        <v>918</v>
+      </c>
+      <c r="P7">
+        <v>680</v>
+      </c>
+      <c r="Q7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="B8">
         <v>356</v>
       </c>
@@ -792,8 +958,14 @@
       <c r="L8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8">
+        <v>304</v>
+      </c>
+      <c r="P8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="B9">
         <v>49</v>
       </c>
@@ -821,8 +993,11 @@
       <c r="K9">
         <v>643</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="B10">
         <v>781</v>
       </c>
@@ -850,8 +1025,11 @@
       <c r="L10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="C11">
         <v>409</v>
       </c>
@@ -865,7 +1043,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:27">
       <c r="C12">
         <v>500</v>
       </c>
@@ -876,7 +1054,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:27">
       <c r="C13">
         <v>389</v>
       </c>
@@ -887,12 +1065,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:27">
       <c r="C14">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:27">
       <c r="I15" t="s">
         <v>16</v>
       </c>
@@ -905,12 +1083,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19" thickBot="1">
+    <row r="21" spans="1:7" ht="20.25" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" thickTop="1">
+    <row r="22" spans="1:7" ht="15.75" thickTop="1">
       <c r="A22" t="s">
         <v>23</v>
       </c>

--- a/summary/readme.xlsx
+++ b/summary/readme.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="26820" windowHeight="13575"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="26820" windowHeight="13572"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>class 13</t>
   </si>
   <si>
-    <t>Goog新题</t>
-  </si>
-  <si>
     <t>String</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>tree 10</t>
+  </si>
+  <si>
+    <t>Goog新题(珠穆朗玛)</t>
   </si>
 </sst>
 </file>
@@ -566,15 +566,15 @@
   <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="40.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -618,49 +618,49 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>31</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>32</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="15.75">
+    </row>
+    <row r="2" spans="1:27" ht="15.6">
       <c r="A2">
         <v>27</v>
       </c>
@@ -712,8 +712,11 @@
       <c r="Q2">
         <v>141</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" ht="15.75">
+      <c r="R2">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.6">
       <c r="A3">
         <v>26</v>
       </c>
@@ -764,6 +767,9 @@
       </c>
       <c r="Q3">
         <v>86</v>
+      </c>
+      <c r="R3">
+        <v>648</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -804,7 +810,7 @@
         <v>485</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="N4">
         <v>340</v>
@@ -817,6 +823,9 @@
       </c>
       <c r="Q4">
         <v>83</v>
+      </c>
+      <c r="R4">
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -868,6 +877,9 @@
       <c r="Q5">
         <v>206</v>
       </c>
+      <c r="R5">
+        <v>235</v>
+      </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6">
@@ -882,6 +894,9 @@
       <c r="J6">
         <v>85</v>
       </c>
+      <c r="M6">
+        <v>983</v>
+      </c>
       <c r="O6">
         <v>303</v>
       </c>
@@ -890,6 +905,9 @@
       </c>
       <c r="Q6">
         <v>146</v>
+      </c>
+      <c r="R6">
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -920,6 +938,9 @@
       <c r="L7" t="s">
         <v>21</v>
       </c>
+      <c r="M7">
+        <v>921</v>
+      </c>
       <c r="O7">
         <v>918</v>
       </c>
@@ -928,6 +949,9 @@
       </c>
       <c r="Q7">
         <v>143</v>
+      </c>
+      <c r="R7">
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -958,11 +982,17 @@
       <c r="L8" t="s">
         <v>22</v>
       </c>
+      <c r="M8">
+        <v>152</v>
+      </c>
       <c r="O8">
         <v>304</v>
       </c>
       <c r="P8">
         <v>345</v>
+      </c>
+      <c r="R8">
+        <v>720</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -993,8 +1023,14 @@
       <c r="K9">
         <v>643</v>
       </c>
+      <c r="M9">
+        <v>53</v>
+      </c>
       <c r="O9">
         <v>523</v>
+      </c>
+      <c r="R9">
+        <v>559</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -1028,6 +1064,9 @@
       <c r="O10">
         <v>525</v>
       </c>
+      <c r="R10">
+        <v>819</v>
+      </c>
     </row>
     <row r="11" spans="1:27">
       <c r="C11">
@@ -1042,6 +1081,9 @@
       <c r="J11">
         <v>907</v>
       </c>
+      <c r="R11">
+        <v>270</v>
+      </c>
     </row>
     <row r="12" spans="1:27">
       <c r="C12">
@@ -1077,18 +1119,18 @@
     </row>
     <row r="19" spans="1:7">
       <c r="F19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="20.25" thickBot="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20.399999999999999" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickTop="1">
+    <row r="22" spans="1:7" ht="15" thickTop="1">
       <c r="A22" t="s">
         <v>23</v>
       </c>

--- a/summary/readme.xlsx
+++ b/summary/readme.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="26820" windowHeight="13572"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="26820" windowHeight="13580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>class 1</t>
   </si>
@@ -147,17 +147,21 @@
   </si>
   <si>
     <t>Goog新题(珠穆朗玛)</t>
+  </si>
+  <si>
+    <t>918 = 53(single interval) + 2 interval</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -165,7 +169,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -173,21 +177,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -195,9 +199,25 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -242,12 +262,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -256,12 +280,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="3" builtinId="26"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="9">
+    <cellStyle name="好" xfId="3" builtinId="26"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
+    <cellStyle name="无色" xfId="4" builtinId="28"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="标题 1" xfId="1" builtinId="16"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -319,7 +347,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,7 +382,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -565,13 +593,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="40.109375" customWidth="1"/>
+    <col min="4" max="4" width="40.1640625" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" customWidth="1"/>
     <col min="9" max="9" width="25.33203125" customWidth="1"/>
     <col min="12" max="12" width="23.33203125" customWidth="1"/>
@@ -660,7 +688,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.6">
+    <row r="2" spans="1:27" ht="15">
       <c r="A2">
         <v>27</v>
       </c>
@@ -716,7 +744,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.6">
+    <row r="3" spans="1:27" ht="15">
       <c r="A3">
         <v>26</v>
       </c>
@@ -1117,6 +1145,11 @@
         <v>16</v>
       </c>
     </row>
+    <row r="16" spans="1:27">
+      <c r="O16" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="19" spans="1:7">
       <c r="F19" t="s">
         <v>26</v>
@@ -1125,7 +1158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="20.399999999999999" thickBot="1">
+    <row r="21" spans="1:7" ht="19" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -1138,6 +1171,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/summary/readme.xlsx
+++ b/summary/readme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>class 1</t>
   </si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>918 = 53(single interval) + 2 interval</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>930 binary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>525 binay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>373 heap</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -593,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -787,8 +799,8 @@
       <c r="N3">
         <v>76</v>
       </c>
-      <c r="O3">
-        <v>930</v>
+      <c r="O3" t="s">
+        <v>43</v>
       </c>
       <c r="P3">
         <v>172</v>
@@ -800,7 +812,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" ht="15">
       <c r="A4">
         <v>80</v>
       </c>
@@ -852,7 +864,7 @@
       <c r="Q4">
         <v>83</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="3">
         <v>208</v>
       </c>
     </row>
@@ -978,8 +990,8 @@
       <c r="Q7">
         <v>143</v>
       </c>
-      <c r="R7">
-        <v>373</v>
+      <c r="R7" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -1089,8 +1101,8 @@
       <c r="L10" t="s">
         <v>20</v>
       </c>
-      <c r="O10">
-        <v>525</v>
+      <c r="O10" t="s">
+        <v>44</v>
       </c>
       <c r="R10">
         <v>819</v>

--- a/summary/readme.xlsx
+++ b/summary/readme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>class 1</t>
   </si>
@@ -162,6 +162,10 @@
   </si>
   <si>
     <t>373 heap</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>720 dfs</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -605,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1031,8 +1035,8 @@
       <c r="P8">
         <v>345</v>
       </c>
-      <c r="R8">
-        <v>720</v>
+      <c r="R8" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1121,7 +1125,7 @@
       <c r="J11">
         <v>907</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="4">
         <v>270</v>
       </c>
     </row>

--- a/summary/readme.xlsx
+++ b/summary/readme.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="26820" windowHeight="13580"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="26820" windowHeight="13584"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,11 +173,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -185,7 +185,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -193,21 +193,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -215,7 +215,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -224,7 +224,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -232,7 +232,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -297,15 +297,15 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="好" xfId="3" builtinId="26"/>
-    <cellStyle name="差" xfId="2" builtinId="27"/>
-    <cellStyle name="无色" xfId="4" builtinId="28"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="标题 1" xfId="1" builtinId="16"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -609,13 +609,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="40.1640625" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" customWidth="1"/>
     <col min="9" max="9" width="25.33203125" customWidth="1"/>
     <col min="12" max="12" width="23.33203125" customWidth="1"/>
@@ -704,7 +704,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15">
+    <row r="2" spans="1:27" ht="15.6">
       <c r="A2">
         <v>27</v>
       </c>
@@ -759,8 +759,35 @@
       <c r="R2">
         <v>884</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" ht="15">
+      <c r="S2">
+        <v>700</v>
+      </c>
+      <c r="T2">
+        <v>663</v>
+      </c>
+      <c r="U2">
+        <v>156</v>
+      </c>
+      <c r="V2">
+        <v>257</v>
+      </c>
+      <c r="W2">
+        <v>298</v>
+      </c>
+      <c r="X2">
+        <v>865</v>
+      </c>
+      <c r="Y2">
+        <v>919</v>
+      </c>
+      <c r="Z2">
+        <v>1028</v>
+      </c>
+      <c r="AA2">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.6">
       <c r="A3">
         <v>26</v>
       </c>
@@ -815,8 +842,35 @@
       <c r="R3">
         <v>648</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="15">
+      <c r="S3">
+        <v>235</v>
+      </c>
+      <c r="T3">
+        <v>968</v>
+      </c>
+      <c r="U3">
+        <v>897</v>
+      </c>
+      <c r="V3">
+        <v>606</v>
+      </c>
+      <c r="W3">
+        <v>129</v>
+      </c>
+      <c r="X3">
+        <v>236</v>
+      </c>
+      <c r="Y3">
+        <v>366</v>
+      </c>
+      <c r="Z3">
+        <v>536</v>
+      </c>
+      <c r="AA3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.6">
       <c r="A4">
         <v>80</v>
       </c>
@@ -870,6 +924,33 @@
       </c>
       <c r="R4" s="3">
         <v>208</v>
+      </c>
+      <c r="S4">
+        <v>208</v>
+      </c>
+      <c r="T4">
+        <v>337</v>
+      </c>
+      <c r="U4">
+        <v>114</v>
+      </c>
+      <c r="V4">
+        <v>145</v>
+      </c>
+      <c r="W4">
+        <v>437</v>
+      </c>
+      <c r="X4">
+        <v>199</v>
+      </c>
+      <c r="Y4">
+        <v>863</v>
+      </c>
+      <c r="Z4">
+        <v>105</v>
+      </c>
+      <c r="AA4">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -924,6 +1005,27 @@
       <c r="R5">
         <v>235</v>
       </c>
+      <c r="S5">
+        <v>648</v>
+      </c>
+      <c r="T5">
+        <v>124</v>
+      </c>
+      <c r="U5">
+        <v>333</v>
+      </c>
+      <c r="V5">
+        <v>1022</v>
+      </c>
+      <c r="Y5">
+        <v>117</v>
+      </c>
+      <c r="Z5">
+        <v>108</v>
+      </c>
+      <c r="AA5">
+        <v>212</v>
+      </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6">
@@ -953,6 +1055,24 @@
       <c r="R6">
         <v>700</v>
       </c>
+      <c r="S6">
+        <v>884</v>
+      </c>
+      <c r="T6">
+        <v>508</v>
+      </c>
+      <c r="U6">
+        <v>113</v>
+      </c>
+      <c r="V6">
+        <v>988</v>
+      </c>
+      <c r="Y6">
+        <v>199</v>
+      </c>
+      <c r="Z6">
+        <v>662</v>
+      </c>
     </row>
     <row r="7" spans="1:27">
       <c r="B7">
@@ -997,6 +1117,24 @@
       <c r="R7" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="S7">
+        <v>270</v>
+      </c>
+      <c r="T7">
+        <v>250</v>
+      </c>
+      <c r="U7">
+        <v>426</v>
+      </c>
+      <c r="V7">
+        <v>872</v>
+      </c>
+      <c r="Y7">
+        <v>102</v>
+      </c>
+      <c r="Z7">
+        <v>515</v>
+      </c>
     </row>
     <row r="8" spans="1:27">
       <c r="B8">
@@ -1038,6 +1176,24 @@
       <c r="R8" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="S8">
+        <v>819</v>
+      </c>
+      <c r="T8">
+        <v>814</v>
+      </c>
+      <c r="U8">
+        <v>538</v>
+      </c>
+      <c r="V8">
+        <v>501</v>
+      </c>
+      <c r="Y8">
+        <v>103</v>
+      </c>
+      <c r="Z8">
+        <v>1008</v>
+      </c>
     </row>
     <row r="9" spans="1:27">
       <c r="B9">
@@ -1076,6 +1232,24 @@
       <c r="R9">
         <v>559</v>
       </c>
+      <c r="S9">
+        <v>559</v>
+      </c>
+      <c r="T9">
+        <v>979</v>
+      </c>
+      <c r="U9">
+        <v>430</v>
+      </c>
+      <c r="V9">
+        <v>589</v>
+      </c>
+      <c r="Y9">
+        <v>655</v>
+      </c>
+      <c r="Z9">
+        <v>106</v>
+      </c>
     </row>
     <row r="10" spans="1:27">
       <c r="B10">
@@ -1111,6 +1285,18 @@
       <c r="R10">
         <v>819</v>
       </c>
+      <c r="T10">
+        <v>549</v>
+      </c>
+      <c r="U10">
+        <v>110</v>
+      </c>
+      <c r="V10">
+        <v>94</v>
+      </c>
+      <c r="Z10">
+        <v>439</v>
+      </c>
     </row>
     <row r="11" spans="1:27">
       <c r="C11">
@@ -1128,6 +1314,9 @@
       <c r="R11" s="4">
         <v>270</v>
       </c>
+      <c r="V11">
+        <v>590</v>
+      </c>
     </row>
     <row r="12" spans="1:27">
       <c r="C12">
@@ -1174,7 +1363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19" thickBot="1">
+    <row r="21" spans="1:7" ht="20.399999999999999" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>

--- a/summary/readme.xlsx
+++ b/summary/readme.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="26820" windowHeight="13584"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>class 1</t>
   </si>
@@ -166,6 +166,22 @@
   </si>
   <si>
     <t>720 dfs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>968 greedy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-ary tree</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>298-longest consecutive sequence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>156 linked list - dfs as recursion</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -173,11 +189,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -185,7 +201,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -193,21 +209,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -215,7 +231,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -224,7 +240,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -232,7 +248,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -278,12 +294,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -296,16 +324,28 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Good" xfId="3" builtinId="26"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="21">
+    <cellStyle name="好" xfId="3" builtinId="26"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
+    <cellStyle name="无色" xfId="4" builtinId="28"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="标题 1" xfId="1" builtinId="16"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -609,13 +649,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="40.109375" customWidth="1"/>
+    <col min="4" max="4" width="40.1640625" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" customWidth="1"/>
     <col min="9" max="9" width="25.33203125" customWidth="1"/>
     <col min="12" max="12" width="23.33203125" customWidth="1"/>
@@ -704,7 +744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.6">
+    <row r="2" spans="1:27" ht="15">
       <c r="A2">
         <v>27</v>
       </c>
@@ -757,16 +797,16 @@
         <v>141</v>
       </c>
       <c r="R2">
-        <v>884</v>
+        <v>700</v>
       </c>
       <c r="S2">
-        <v>700</v>
+        <v>676</v>
       </c>
       <c r="T2">
         <v>663</v>
       </c>
-      <c r="U2">
-        <v>156</v>
+      <c r="U2" t="s">
+        <v>50</v>
       </c>
       <c r="V2">
         <v>257</v>
@@ -787,7 +827,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.6">
+    <row r="3" spans="1:27" ht="15">
       <c r="A3">
         <v>26</v>
       </c>
@@ -840,13 +880,13 @@
         <v>86</v>
       </c>
       <c r="R3">
-        <v>648</v>
+        <v>235</v>
       </c>
       <c r="S3">
-        <v>235</v>
-      </c>
-      <c r="T3">
-        <v>968</v>
+        <v>559</v>
+      </c>
+      <c r="T3" t="s">
+        <v>47</v>
       </c>
       <c r="U3">
         <v>897</v>
@@ -870,7 +910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15.6">
+    <row r="4" spans="1:27" ht="15">
       <c r="A4">
         <v>80</v>
       </c>
@@ -926,7 +966,7 @@
         <v>208</v>
       </c>
       <c r="S4">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="T4">
         <v>337</v>
@@ -1003,10 +1043,10 @@
         <v>206</v>
       </c>
       <c r="R5">
-        <v>235</v>
+        <v>884</v>
       </c>
       <c r="S5">
-        <v>648</v>
+        <v>938</v>
       </c>
       <c r="T5">
         <v>124</v>
@@ -1053,10 +1093,10 @@
         <v>146</v>
       </c>
       <c r="R6">
-        <v>700</v>
+        <v>648</v>
       </c>
       <c r="S6">
-        <v>884</v>
+        <v>111</v>
       </c>
       <c r="T6">
         <v>508</v>
@@ -1118,7 +1158,7 @@
         <v>45</v>
       </c>
       <c r="S7">
-        <v>270</v>
+        <v>104</v>
       </c>
       <c r="T7">
         <v>250</v>
@@ -1176,8 +1216,8 @@
       <c r="R8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="S8">
-        <v>819</v>
+      <c r="S8" t="s">
+        <v>48</v>
       </c>
       <c r="T8">
         <v>814</v>
@@ -1232,9 +1272,6 @@
       <c r="R9">
         <v>559</v>
       </c>
-      <c r="S9">
-        <v>559</v>
-      </c>
       <c r="T9">
         <v>979</v>
       </c>
@@ -1314,6 +1351,9 @@
       <c r="R11" s="4">
         <v>270</v>
       </c>
+      <c r="T11" t="s">
+        <v>49</v>
+      </c>
       <c r="V11">
         <v>590</v>
       </c>
@@ -1363,7 +1403,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="20.399999999999999" thickBot="1">
+    <row r="21" spans="1:7" ht="19" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>

--- a/summary/readme.xlsx
+++ b/summary/readme.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13580"/>
+    <workbookView xWindow="-4340" yWindow="9640" windowWidth="28800" windowHeight="13580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>class 1</t>
   </si>
@@ -182,6 +182,50 @@
   </si>
   <si>
     <t>156 linked list - dfs as recursion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>919 bfs not fast, need to re-visit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>366 I used HashMap runtime is not fast</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree 11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>graph 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>frog jump</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>graph 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>decode ways</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>word break</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>graph 3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>graph 4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>graph 5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -647,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -661,7 +705,7 @@
     <col min="12" max="12" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -743,8 +787,26 @@
       <c r="AA1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" ht="15">
+      <c r="AB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="15">
       <c r="A2">
         <v>27</v>
       </c>
@@ -817,8 +879,8 @@
       <c r="X2">
         <v>865</v>
       </c>
-      <c r="Y2">
-        <v>919</v>
+      <c r="Y2" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="Z2">
         <v>1028</v>
@@ -826,8 +888,26 @@
       <c r="AA2">
         <v>980</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" ht="15">
+      <c r="AB2">
+        <v>625</v>
+      </c>
+      <c r="AC2">
+        <v>128</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE2">
+        <v>221</v>
+      </c>
+      <c r="AF2">
+        <v>174</v>
+      </c>
+      <c r="AG2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="15">
       <c r="A3">
         <v>26</v>
       </c>
@@ -900,8 +980,8 @@
       <c r="X3">
         <v>236</v>
       </c>
-      <c r="Y3">
-        <v>366</v>
+      <c r="Y3" t="s">
+        <v>52</v>
       </c>
       <c r="Z3">
         <v>536</v>
@@ -909,8 +989,26 @@
       <c r="AA3">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="15">
+      <c r="AB3">
+        <v>254</v>
+      </c>
+      <c r="AC3">
+        <v>329</v>
+      </c>
+      <c r="AD3">
+        <v>132</v>
+      </c>
+      <c r="AE3">
+        <v>139</v>
+      </c>
+      <c r="AF3">
+        <v>120</v>
+      </c>
+      <c r="AG3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="15">
       <c r="A4">
         <v>80</v>
       </c>
@@ -992,8 +1090,26 @@
       <c r="AA4">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4">
+        <v>52</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE4">
+        <v>132</v>
+      </c>
+      <c r="AF4">
+        <v>63</v>
+      </c>
+      <c r="AG4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5">
         <v>265</v>
       </c>
@@ -1066,8 +1182,26 @@
       <c r="AA5">
         <v>212</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5">
+        <v>526</v>
+      </c>
+      <c r="AC5">
+        <v>594</v>
+      </c>
+      <c r="AD5">
+        <v>472</v>
+      </c>
+      <c r="AE5">
+        <v>823</v>
+      </c>
+      <c r="AF5">
+        <v>931</v>
+      </c>
+      <c r="AG5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6">
         <v>159</v>
       </c>
@@ -1113,8 +1247,26 @@
       <c r="Z6">
         <v>662</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6">
+        <v>37</v>
+      </c>
+      <c r="AC6">
+        <v>817</v>
+      </c>
+      <c r="AD6">
+        <v>717</v>
+      </c>
+      <c r="AE6">
+        <v>96</v>
+      </c>
+      <c r="AF6">
+        <v>64</v>
+      </c>
+      <c r="AG6">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
       <c r="B7">
         <v>288</v>
       </c>
@@ -1175,8 +1327,17 @@
       <c r="Z7">
         <v>515</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AC7">
+        <v>873</v>
+      </c>
+      <c r="AF7">
+        <v>62</v>
+      </c>
+      <c r="AG7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
       <c r="B8">
         <v>356</v>
       </c>
@@ -1234,8 +1395,14 @@
       <c r="Z8">
         <v>1008</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AC8">
+        <v>954</v>
+      </c>
+      <c r="AG8">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
       <c r="B9">
         <v>49</v>
       </c>
@@ -1288,7 +1455,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:33">
       <c r="B10">
         <v>781</v>
       </c>
@@ -1335,7 +1502,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:33">
       <c r="C11">
         <v>409</v>
       </c>
@@ -1358,7 +1525,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:33">
       <c r="C12">
         <v>500</v>
       </c>
@@ -1369,7 +1536,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:33">
       <c r="C13">
         <v>389</v>
       </c>
@@ -1380,17 +1547,17 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:33">
       <c r="C14">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:33">
       <c r="I15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:33">
       <c r="O16" t="s">
         <v>42</v>
       </c>

--- a/summary/readme.xlsx
+++ b/summary/readme.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-4340" yWindow="9640" windowWidth="28800" windowHeight="13580"/>
+    <workbookView xWindow="-4335" yWindow="9645" windowWidth="28800" windowHeight="13575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>class 1</t>
   </si>
@@ -227,17 +227,35 @@
   <si>
     <t>graph 5</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>graph 6</t>
+  </si>
+  <si>
+    <t>graph 7</t>
+  </si>
+  <si>
+    <t>graph 8</t>
+  </si>
+  <si>
+    <t>graph 9</t>
+  </si>
+  <si>
+    <t>graph 10</t>
+  </si>
+  <si>
+    <t>graph 11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -245,7 +263,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -253,21 +271,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -275,7 +293,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -284,7 +302,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -292,7 +310,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -369,27 +387,27 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="21">
-    <cellStyle name="好" xfId="3" builtinId="26"/>
-    <cellStyle name="差" xfId="2" builtinId="27"/>
-    <cellStyle name="无色" xfId="4" builtinId="28"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="标题 1" xfId="1" builtinId="16"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -691,21 +709,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG22"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9"/>
+      <selection activeCell="AM5" sqref="AM5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="40.1640625" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:39">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -805,8 +823,26 @@
       <c r="AG1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" ht="15">
+      <c r="AH1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" ht="15.75">
       <c r="A2">
         <v>27</v>
       </c>
@@ -906,8 +942,26 @@
       <c r="AG2">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" ht="15">
+      <c r="AH2">
+        <v>205</v>
+      </c>
+      <c r="AI2">
+        <v>39</v>
+      </c>
+      <c r="AJ2">
+        <v>78</v>
+      </c>
+      <c r="AK2">
+        <v>126</v>
+      </c>
+      <c r="AL2">
+        <v>417</v>
+      </c>
+      <c r="AM2">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="15.75">
       <c r="A3">
         <v>26</v>
       </c>
@@ -1007,8 +1061,26 @@
       <c r="AG3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" ht="15">
+      <c r="AH3">
+        <v>299</v>
+      </c>
+      <c r="AI3">
+        <v>140</v>
+      </c>
+      <c r="AJ3">
+        <v>89</v>
+      </c>
+      <c r="AK3">
+        <v>127</v>
+      </c>
+      <c r="AL3">
+        <v>210</v>
+      </c>
+      <c r="AM3">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="15.75">
       <c r="A4">
         <v>80</v>
       </c>
@@ -1108,8 +1180,26 @@
       <c r="AG4">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:33">
+      <c r="AH4">
+        <v>244</v>
+      </c>
+      <c r="AI4">
+        <v>131</v>
+      </c>
+      <c r="AJ4">
+        <v>247</v>
+      </c>
+      <c r="AK4">
+        <v>433</v>
+      </c>
+      <c r="AL4">
+        <v>802</v>
+      </c>
+      <c r="AM4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
       <c r="A5">
         <v>265</v>
       </c>
@@ -1200,8 +1290,20 @@
       <c r="AG5">
         <v>115</v>
       </c>
-    </row>
-    <row r="6" spans="1:33">
+      <c r="AH5">
+        <v>23</v>
+      </c>
+      <c r="AI5">
+        <v>797</v>
+      </c>
+      <c r="AJ5">
+        <v>46</v>
+      </c>
+      <c r="AK5">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
       <c r="A6">
         <v>159</v>
       </c>
@@ -1265,8 +1367,11 @@
       <c r="AG6">
         <v>516</v>
       </c>
-    </row>
-    <row r="7" spans="1:33">
+      <c r="AH6">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
       <c r="B7">
         <v>288</v>
       </c>
@@ -1336,8 +1441,11 @@
       <c r="AG7">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:33">
+      <c r="AH7">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
       <c r="B8">
         <v>356</v>
       </c>
@@ -1401,8 +1509,11 @@
       <c r="AG8">
         <v>712</v>
       </c>
-    </row>
-    <row r="9" spans="1:33">
+      <c r="AH8">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
       <c r="B9">
         <v>49</v>
       </c>
@@ -1454,8 +1565,11 @@
       <c r="Z9">
         <v>106</v>
       </c>
-    </row>
-    <row r="10" spans="1:33">
+      <c r="AH9">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
       <c r="B10">
         <v>781</v>
       </c>
@@ -1502,7 +1616,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:39">
       <c r="C11">
         <v>409</v>
       </c>
@@ -1525,7 +1639,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:39">
       <c r="C12">
         <v>500</v>
       </c>
@@ -1536,7 +1650,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:39">
       <c r="C13">
         <v>389</v>
       </c>
@@ -1547,17 +1661,17 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:39">
       <c r="C14">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:39">
       <c r="I15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:39">
       <c r="O16" t="s">
         <v>42</v>
       </c>
@@ -1570,12 +1684,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19" thickBot="1">
+    <row r="21" spans="1:7" ht="20.25" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" thickTop="1">
+    <row r="22" spans="1:7" ht="15.75" thickTop="1">
       <c r="A22" t="s">
         <v>23</v>
       </c>

--- a/summary/readme.xlsx
+++ b/summary/readme.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-4335" yWindow="9645" windowWidth="28800" windowHeight="13575"/>
+    <workbookView xWindow="-4332" yWindow="9648" windowWidth="28800" windowHeight="13572"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -500,7 +500,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -709,18 +709,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AM5" sqref="AM5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="40.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
@@ -842,7 +842,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15.75">
+    <row r="2" spans="1:39" ht="15.6">
       <c r="A2">
         <v>27</v>
       </c>
@@ -961,7 +961,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="15.75">
+    <row r="3" spans="1:39" ht="15.6">
       <c r="A3">
         <v>26</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="15.75">
+    <row r="4" spans="1:39" ht="15.6">
       <c r="A4">
         <v>80</v>
       </c>
@@ -1671,11 +1671,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="O16" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="19" spans="1:7">
       <c r="F19" t="s">
         <v>26</v>
@@ -1684,14 +1679,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="20.25" thickBot="1">
+    <row r="21" spans="1:7" ht="20.399999999999999" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickTop="1">
+    <row r="22" spans="1:7" ht="15" thickTop="1">
       <c r="A22" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/summary/readme.xlsx
+++ b/summary/readme.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-4332" yWindow="9648" windowWidth="28800" windowHeight="13572"/>
+    <workbookView xWindow="1480" yWindow="0" windowWidth="25600" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>class 1</t>
   </si>
@@ -245,17 +245,33 @@
   </si>
   <si>
     <t>graph 11</t>
+  </si>
+  <si>
+    <t>797 left undone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>140 pure backtracking with memoization passed, but lack a dp solution</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>752 left undone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hw: 269</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -263,7 +279,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -271,21 +287,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -293,7 +309,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -302,7 +318,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -310,7 +326,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -387,27 +403,27 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="21">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Good" xfId="3" builtinId="26"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
+    <cellStyle name="无色" xfId="4" builtinId="28"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="标题 1" xfId="1" builtinId="16"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -465,7 +481,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -500,7 +516,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -711,13 +727,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="40.109375" customWidth="1"/>
+    <col min="4" max="4" width="40.1640625" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" customWidth="1"/>
     <col min="9" max="9" width="25.33203125" customWidth="1"/>
     <col min="12" max="12" width="23.33203125" customWidth="1"/>
@@ -842,7 +858,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15.6">
+    <row r="2" spans="1:39" ht="15">
       <c r="A2">
         <v>27</v>
       </c>
@@ -961,7 +977,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="15.6">
+    <row r="3" spans="1:39" ht="15">
       <c r="A3">
         <v>26</v>
       </c>
@@ -1080,7 +1096,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="15.6">
+    <row r="4" spans="1:39" ht="15">
       <c r="A4">
         <v>80</v>
       </c>
@@ -1293,14 +1309,17 @@
       <c r="AH5">
         <v>23</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="4">
         <v>797</v>
       </c>
       <c r="AJ5">
         <v>46</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="4">
         <v>752</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -1615,6 +1634,9 @@
       <c r="Z10">
         <v>439</v>
       </c>
+      <c r="AI10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11">
@@ -1638,6 +1660,9 @@
       <c r="V11">
         <v>590</v>
       </c>
+      <c r="AI11" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12">
@@ -1649,6 +1674,9 @@
       <c r="I12">
         <v>227</v>
       </c>
+      <c r="AI12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:39">
       <c r="C13">
@@ -1679,7 +1707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="20.399999999999999" thickBot="1">
+    <row r="21" spans="1:7" ht="19" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
